--- a/BD_DocTour.xlsx
+++ b/BD_DocTour.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01741351_tec_mx/Documents/Documents/Tec de Monterrey/Semestre 8/2 - Diseño de un sistema organizacional inteligente/App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01741351_tec_mx/Documents/Documents/Tec de Monterrey/Semestre 8/2 - Diseño de un sistema organizacional inteligente/App/CCADS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{6B6FB4F3-93F2-4C89-9BC7-841DAB24FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1EF36DC-74A0-46BA-9717-64C1DD54DF54}"/>
+  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{6B6FB4F3-93F2-4C89-9BC7-841DAB24FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54BA5EC4-6EC0-432D-B41B-8364F4E67C3E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{1DA38FD0-DEE7-4738-B888-4CEA76E31734}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
   <si>
     <t>Precio de venta</t>
   </si>
@@ -265,19 +265,34 @@
     <t xml:space="preserve">Cantidad </t>
   </si>
   <si>
-    <t>Comisión Mercadotecnia</t>
-  </si>
-  <si>
-    <t>Segunda opinión médica</t>
-  </si>
-  <si>
-    <t>Plataforma de descuentos</t>
-  </si>
-  <si>
-    <t>Sueldo por muerte accidental</t>
-  </si>
-  <si>
     <t>Precio</t>
+  </si>
+  <si>
+    <t>CallCenter_Oficinas</t>
+  </si>
+  <si>
+    <t>Medicina_General</t>
+  </si>
+  <si>
+    <t>Plataforma_de_descuentos</t>
+  </si>
+  <si>
+    <t>Segunda_opinión_médica</t>
+  </si>
+  <si>
+    <t>Sueldo_por_muerte_accidental</t>
+  </si>
+  <si>
+    <t>Comisión_Vendedor</t>
+  </si>
+  <si>
+    <t>Comisión_Referencia</t>
+  </si>
+  <si>
+    <t>Comisión_Financiera</t>
+  </si>
+  <si>
+    <t>Comisión_Mercadotecnia</t>
   </si>
 </sst>
 </file>
@@ -505,10 +520,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1362,7 +1373,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1395,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="B2" s="21">
         <v>13</v>
@@ -1398,7 +1409,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B3" s="21">
         <v>3</v>
@@ -1412,7 +1423,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B4" s="21">
         <v>15</v>
@@ -1426,7 +1437,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B5" s="21">
         <v>1</v>
@@ -1449,7 +1460,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="B2:D9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1482,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="B2" s="23">
         <v>18</v>
@@ -1485,7 +1496,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B3" s="23">
         <v>25</v>
@@ -1541,7 +1552,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B7" s="23">
         <v>8</v>
@@ -1555,7 +1566,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="25">
         <v>0</v>
@@ -1569,7 +1580,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="25">
         <v>0</v>
@@ -1592,7 +1603,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1625,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" s="26">
         <v>199</v>
@@ -1637,7 +1648,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,6 +2219,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC1DC5DAE9CBAC4C959B9BD722FE6914" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="735cedd18f10799381eadc759221c1ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbc90c94-cace-47db-86cd-130646b42399" xmlns:ns3="45b27b2f-68e2-4003-9cd4-739d1ad6eb00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="578a18bde5e93a47b83a90c5c59f22ca" ns2:_="" ns3:_="">
     <xsd:import namespace="cbc90c94-cace-47db-86cd-130646b42399"/>
@@ -2430,16 +2450,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91A045C5-FD8D-4E11-97DF-37A8B2765ED7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717E9E06-C646-4282-9E59-3AEF048DD2AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2456,12 +2475,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91A045C5-FD8D-4E11-97DF-37A8B2765ED7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/BD_DocTour.xlsx
+++ b/BD_DocTour.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/a01741351_tec_mx/Documents/Documents/Tec de Monterrey/Semestre 8/2 - Diseño de un sistema organizacional inteligente/App/CCADS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="13_ncr:1_{6B6FB4F3-93F2-4C89-9BC7-841DAB24FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54BA5EC4-6EC0-432D-B41B-8364F4E67C3E}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="13_ncr:1_{6B6FB4F3-93F2-4C89-9BC7-841DAB24FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EEAD9A6-B840-4DBC-8E88-4968876DF5EE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{1DA38FD0-DEE7-4738-B888-4CEA76E31734}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{1DA38FD0-DEE7-4738-B888-4CEA76E31734}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja principal" sheetId="7" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="1_CostosFijos" sheetId="6" r:id="rId3"/>
     <sheet name="1_Precios" sheetId="8" r:id="rId4"/>
     <sheet name="1_MembresíasProyectadas" sheetId="9" r:id="rId5"/>
-    <sheet name="3_Membresías" sheetId="2" r:id="rId6"/>
-    <sheet name="3_Margen" sheetId="3" r:id="rId7"/>
-    <sheet name="3_Utilidad" sheetId="4" r:id="rId8"/>
-    <sheet name="3_Porcentaje  de utilización" sheetId="5" r:id="rId9"/>
+    <sheet name="1_Tasas" sheetId="10" r:id="rId6"/>
+    <sheet name="3_Membresías" sheetId="2" r:id="rId7"/>
+    <sheet name="3_Margen" sheetId="3" r:id="rId8"/>
+    <sheet name="3_Utilidad" sheetId="4" r:id="rId9"/>
+    <sheet name="3_Porcentaje  de utilización" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
   <si>
     <t>Precio de venta</t>
   </si>
@@ -293,6 +294,15 @@
   </si>
   <si>
     <t>Comisión_Mercadotecnia</t>
+  </si>
+  <si>
+    <t>Tasa_inflacion</t>
+  </si>
+  <si>
+    <t>Tasa_impuestos</t>
+  </si>
+  <si>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -520,6 +530,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1368,6 +1382,161 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94316DB-40F3-4D2F-BBCC-D82A7600E235}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A311AD-83FB-4EE2-85A8-D4A5ECAB60A6}">
   <dimension ref="A1:D5"/>
@@ -1460,7 +1629,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1EC4DA-55F6-4EF5-9649-D8C4104285EA}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1754,11 +1923,51 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009A2784-9CEE-4D0A-A6A3-790686B94A2F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="24">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="24">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572C5DB2-134C-4F20-A402-D9B0DDD873F1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,7 +2015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC0F636-6D75-4B14-A76F-57797DE89F69}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -1932,7 +2141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C94C2B-8412-43C4-8BE4-F10CE1412B8D}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -2063,171 +2272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94316DB-40F3-4D2F-BBCC-D82A7600E235}">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FC1DC5DAE9CBAC4C959B9BD722FE6914" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="735cedd18f10799381eadc759221c1ab">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbc90c94-cace-47db-86cd-130646b42399" xmlns:ns3="45b27b2f-68e2-4003-9cd4-739d1ad6eb00" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="578a18bde5e93a47b83a90c5c59f22ca" ns2:_="" ns3:_="">
     <xsd:import namespace="cbc90c94-cace-47db-86cd-130646b42399"/>
@@ -2450,15 +2495,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91A045C5-FD8D-4E11-97DF-37A8B2765ED7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{717E9E06-C646-4282-9E59-3AEF048DD2AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2475,4 +2521,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91A045C5-FD8D-4E11-97DF-37A8B2765ED7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BD_DocTour.xlsx
+++ b/BD_DocTour.xlsx
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" t="n">
         <v>109</v>
@@ -2303,7 +2303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2347,13 +2347,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" t="n">
         <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2361,55 +2361,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C4" t="n">
         <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>86</v>
-      </c>
-      <c r="C5" t="n">
-        <v>54</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>93</v>
-      </c>
-      <c r="C6" t="n">
-        <v>58</v>
-      </c>
-      <c r="D6" t="n">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>105</v>
-      </c>
-      <c r="C7" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" t="n">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/BD_DocTour.xlsx
+++ b/BD_DocTour.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hoja principal" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_Comisiones" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_CostosFijos" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_CostosFijosTotales" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_Precios" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_MembresíasProyectadas_3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_MembresíasProyectadas_6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_Tasas" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_Membresías" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_Margen" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_Utilidad" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_Porcentaje  de utilización" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_Meses" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_Comisiones" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_CostosFijos" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_CostosFijosTotales" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_Precios" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_MembresíasProyectadas_3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_MembresíasProyectadas_6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_Tasas" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_Membresías" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_Margen" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_Utilidad" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_Porcentaje  de utilización" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -82,8 +83,8 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -187,7 +188,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
@@ -225,16 +226,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1303,6 +1304,73 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col width="16.7109375" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Membresias</t>
+        </is>
+      </c>
+      <c r="B1" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cantidad </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basica</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Platino</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1454,7 +1522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1617,7 +1685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1818,85 +1886,30 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="26.5703125" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="29" t="inlineStr">
-        <is>
-          <t>Básica</t>
-        </is>
-      </c>
-      <c r="C1" s="29" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="D1" s="29" t="inlineStr">
-        <is>
-          <t>Platino</t>
+      <c r="B1" s="26" t="inlineStr">
+        <is>
+          <t>Meses a proyectar</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="n">
+      <c r="A2" s="25" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14.99999999999999</v>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4.499999999999999</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>15</v>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1910,212 +1923,89 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col width="29.42578125" customWidth="1" min="1" max="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="n"/>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="27" t="inlineStr">
         <is>
           <t>Básica</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="27" t="inlineStr">
         <is>
           <t>Platino</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="inlineStr">
-        <is>
-          <t>CallCenter_Oficinas</t>
-        </is>
-      </c>
-      <c r="B2" s="27" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="C2" s="27" t="inlineStr">
-        <is>
-          <t>21.00</t>
-        </is>
-      </c>
-      <c r="D2" s="22" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
+      <c r="A2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.99999999999999</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="22" t="inlineStr">
-        <is>
-          <t>Medicina_General</t>
-        </is>
-      </c>
-      <c r="B3" s="27" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="C3" s="27" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="D3" s="22" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
+      <c r="A3" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.499999999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="22" t="inlineStr">
-        <is>
-          <t>Nutrición</t>
-        </is>
-      </c>
-      <c r="B4" s="27" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="C4" s="27" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
-      </c>
-      <c r="D4" s="22" t="inlineStr">
-        <is>
-          <t>18.00</t>
-        </is>
+      <c r="A4" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="22" t="inlineStr">
-        <is>
-          <t>Psicología</t>
-        </is>
-      </c>
-      <c r="B5" s="27" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="C5" s="27" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="D5" s="22" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="22" t="inlineStr">
-        <is>
-          <t>Addiuva</t>
-        </is>
-      </c>
-      <c r="B6" s="27" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="C6" s="27" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="D6" s="22" t="inlineStr">
-        <is>
-          <t>15.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="22" t="inlineStr">
-        <is>
-          <t>Plataforma_de_descuentos</t>
-        </is>
-      </c>
-      <c r="B7" s="27" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="C7" s="27" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D7" s="22" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="22" t="inlineStr">
-        <is>
-          <t>Segunda_opinión_médica</t>
-        </is>
-      </c>
-      <c r="B8" s="27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C8" s="27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="D8" s="22" t="inlineStr">
-        <is>
-          <t>39.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="22" t="inlineStr">
-        <is>
-          <t>Sueldo_por_muerte_accidental</t>
-        </is>
-      </c>
-      <c r="B9" s="27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="C9" s="27" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="D9" s="22" t="n">
-        <v>15.25</v>
+      <c r="A5" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2125,47 +2015,212 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="29.42578125" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="29" t="inlineStr">
+      <c r="A1" s="22" t="n"/>
+      <c r="B1" s="23" t="inlineStr">
         <is>
           <t>Básica</t>
         </is>
       </c>
-      <c r="C1" s="29" t="inlineStr">
+      <c r="C1" s="23" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="D1" s="29" t="inlineStr">
+      <c r="D1" s="23" t="inlineStr">
         <is>
           <t>Platino</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>106</v>
-      </c>
-      <c r="C2" t="n">
-        <v>109</v>
-      </c>
-      <c r="D2" t="n">
-        <v>167.25</v>
+      <c r="A2" s="21" t="inlineStr">
+        <is>
+          <t>CallCenter_Oficinas</t>
+        </is>
+      </c>
+      <c r="B2" s="24" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="C2" s="24" t="inlineStr">
+        <is>
+          <t>21.00</t>
+        </is>
+      </c>
+      <c r="D2" s="21" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="21" t="inlineStr">
+        <is>
+          <t>Medicina_General</t>
+        </is>
+      </c>
+      <c r="B3" s="24" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="C3" s="24" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="inlineStr">
+        <is>
+          <t>Nutrición</t>
+        </is>
+      </c>
+      <c r="B4" s="24" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="C4" s="24" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+      <c r="D4" s="21" t="inlineStr">
+        <is>
+          <t>18.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="inlineStr">
+        <is>
+          <t>Psicología</t>
+        </is>
+      </c>
+      <c r="B5" s="24" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="C5" s="24" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="D5" s="21" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="inlineStr">
+        <is>
+          <t>Addiuva</t>
+        </is>
+      </c>
+      <c r="B6" s="24" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="C6" s="24" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="D6" s="21" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="inlineStr">
+        <is>
+          <t>Plataforma_de_descuentos</t>
+        </is>
+      </c>
+      <c r="B7" s="24" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="C7" s="24" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D7" s="21" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="inlineStr">
+        <is>
+          <t>Segunda_opinión_médica</t>
+        </is>
+      </c>
+      <c r="B8" s="24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C8" s="24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D8" s="21" t="inlineStr">
+        <is>
+          <t>39.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="inlineStr">
+        <is>
+          <t>Sueldo_por_muerte_accidental</t>
+        </is>
+      </c>
+      <c r="B9" s="24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C9" s="24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D9" s="21" t="n">
+        <v>15.25</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
 </worksheet>
 </file>
 
@@ -2184,34 +2239,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="29" t="inlineStr">
+      <c r="B1" s="27" t="inlineStr">
         <is>
           <t>Básica</t>
         </is>
       </c>
-      <c r="C1" s="29" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="D1" s="29" t="inlineStr">
+      <c r="D1" s="27" t="inlineStr">
         <is>
           <t>Platino</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="n">
+      <c r="A2" s="27" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="C2" t="n">
-        <v>304.47</v>
+        <v>109</v>
       </c>
       <c r="D2" t="n">
-        <v>487.15</v>
+        <v>167.25</v>
       </c>
     </row>
   </sheetData>
@@ -2225,75 +2280,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="inlineStr">
+      <c r="B1" s="27" t="inlineStr">
         <is>
           <t>Básica</t>
         </is>
       </c>
-      <c r="C1" s="12" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="D1" s="12" t="inlineStr">
+      <c r="D1" s="27" t="inlineStr">
         <is>
           <t>Platino</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="n">
-        <v>45078</v>
+      <c r="A2" s="27" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>304.47</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="21" t="n">
-        <v>45108</v>
-      </c>
-      <c r="B3" t="n">
-        <v>74</v>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="21" t="n">
-        <v>45139</v>
-      </c>
-      <c r="B4" t="n">
-        <v>80</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
+        <v>487.15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2312,24 +2339,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="29" t="inlineStr">
+      <c r="B1" s="27" t="inlineStr">
         <is>
           <t>Básica</t>
         </is>
       </c>
-      <c r="C1" s="29" t="inlineStr">
+      <c r="C1" s="27" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="D1" s="29" t="inlineStr">
+      <c r="D1" s="27" t="inlineStr">
         <is>
           <t>Platino</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="n">
+      <c r="A2" s="27" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -2343,31 +2370,31 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="n">
+      <c r="A3" s="27" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="n">
         <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="29" t="n">
+      <c r="A4" s="27" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C4" t="n">
         <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2376,6 +2403,126 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="27" t="inlineStr">
+        <is>
+          <t>Básica</t>
+        </is>
+      </c>
+      <c r="C1" s="27" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D1" s="27" t="inlineStr">
+        <is>
+          <t>Platino</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>70</v>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>74</v>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>80</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>86</v>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="27" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>93</v>
+      </c>
+      <c r="C6" t="n">
+        <v>58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2390,14 +2537,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="29" t="inlineStr">
+      <c r="B1" s="27" t="inlineStr">
         <is>
           <t>Valor</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="29" t="n">
+      <c r="A2" s="27" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -2405,7 +2552,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="29" t="n">
+      <c r="A3" s="27" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -2415,71 +2562,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col width="16.7109375" customWidth="1" min="1" max="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="9" t="inlineStr">
-        <is>
-          <t>Membresias</t>
-        </is>
-      </c>
-      <c r="B1" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cantidad </t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Basica</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Platino</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>